--- a/temp_api_cust.xlsx
+++ b/temp_api_cust.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>address</t>
   </si>
@@ -28,7 +28,16 @@
     <t>addresses</t>
   </si>
   <si>
+    <t>bhujangaraya sharma street,kavali</t>
+  </si>
+  <si>
     <t>iit madras, guindy</t>
+  </si>
+  <si>
+    <t>kukatpally, hyderabad</t>
+  </si>
+  <si>
+    <t>sullurpeta, andhra pradesh</t>
   </si>
 </sst>
 </file>
@@ -386,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,13 +420,55 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>12.99466</v>
+        <v>14.913181</v>
       </c>
       <c r="C2">
-        <v>80.23338</v>
+        <v>79.992981</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>12.99466</v>
+      </c>
+      <c r="C3">
+        <v>80.23338</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>17.48846</v>
+      </c>
+      <c r="C4">
+        <v>78.40918000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>13.70456</v>
+      </c>
+      <c r="C5">
+        <v>80.01612</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
